--- a/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
+++ b/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="160" windowWidth="25360" windowHeight="14200" tabRatio="572"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="572"/>
   </bookViews>
   <sheets>
-    <sheet name="수집원본데이터" sheetId="2" r:id="rId1"/>
-    <sheet name="집계데이터" sheetId="7" r:id="rId2"/>
+    <sheet name="source data" sheetId="2" r:id="rId1"/>
+    <sheet name="summary data" sheetId="7" r:id="rId2"/>
+    <sheet name="competitor" sheetId="8" r:id="rId3"/>
+    <sheet name="collect_object" sheetId="9" r:id="rId4"/>
+    <sheet name="collect_object_data" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="285">
   <si>
     <t>site</t>
   </si>
@@ -79,9 +82,6 @@
     <t>언어</t>
   </si>
   <si>
-    <t>대표 피쳐분류명</t>
-  </si>
-  <si>
     <t>주제어</t>
   </si>
   <si>
@@ -151,12 +151,6 @@
     <t>형태소분석된 Term들중에서 명사(N), 동사(V)만 순서대로 추출한 텍스트(이모티콘 태그로 변환)</t>
   </si>
   <si>
-    <t>원본문서텍스트(이모티콘 태그로 변환안함.)</t>
-  </si>
-  <si>
-    <t>메인 피쳐분류: 피쳐분류중에 가장 매칭건수가 많은 피쳐분류명</t>
-  </si>
-  <si>
     <t>clause</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>수식어 집합(구분자: 공백)</t>
   </si>
   <si>
-    <t>피쳐 분류 집합(구분자: 공백)</t>
-  </si>
-  <si>
     <t>to_user</t>
   </si>
   <si>
@@ -208,12 +199,6 @@
     <t>태그 텍스트</t>
   </si>
   <si>
-    <t>icon_url</t>
-  </si>
-  <si>
-    <t>아이콘 URL</t>
-  </si>
-  <si>
     <t>수집일시(yyyyMMddHHmmss)</t>
   </si>
   <si>
@@ -277,21 +262,12 @@
     <t>week</t>
   </si>
   <si>
-    <t>docs</t>
-  </si>
-  <si>
     <t>is_spam</t>
   </si>
   <si>
     <t>주제어-서술어-속성-수식어 조합의 절집합(구분자: 콤마)</t>
   </si>
   <si>
-    <t>주제어(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>서술어(구분자: 공백)</t>
-  </si>
-  <si>
     <t>안드로이드 마켓 로케일</t>
   </si>
   <si>
@@ -376,9 +352,6 @@
     <t>me2day</t>
   </si>
   <si>
-    <t>로케일</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -406,15 +379,6 @@
     <t>freq</t>
   </si>
   <si>
-    <t>주제어-서술어 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <t>주제어-속성 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <t>피쳐분류명</t>
-  </si>
-  <si>
     <t>집계주기</t>
   </si>
   <si>
@@ -422,13 +386,700 @@
   </si>
   <si>
     <t>Feature/Predicate별 주간 집계</t>
+  </si>
+  <si>
+    <t>feature_subject</t>
+  </si>
+  <si>
+    <t>feature_predicate</t>
+  </si>
+  <si>
+    <t>피쳐-주제어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>피쳐-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>주제어 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>서술어 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>원본문서텍스트(탭, 줄내리기 등의 문자 제거)</t>
+  </si>
+  <si>
+    <t>tweet_type</t>
+  </si>
+  <si>
+    <t>트윗유형(RETWEET, MENTION, REPLY)</t>
+  </si>
+  <si>
+    <t>모바일 앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱스토어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드마켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미투데이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트위터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱스토어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naver
+(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N드라이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹툰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 뮤직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윙스푼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 북스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈캐스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국어사전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌회화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hangame
+(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임톡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한게임버즐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한게임윷놀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한게임런앤히트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에브리팜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한게임사천성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요마요마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스트오브소드5 리로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트한게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행을가다: 유럽편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오투잼 아날로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울프보이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한게임미니팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한게임보물섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한게임신맞고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한게임점핑몽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한게임체인지팡팡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월출시예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daum
+(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daum앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이피플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜쇼핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑하우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv팟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google
+(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 모바일 애플리케이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YouTube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Sky Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kakao (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBJECT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEARCH_KEYWORDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HISTORY_BUFFER_MAX_ROUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEATURE_CLASSIFIERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTENDED_ATTRIBUTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naverline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPSTORE:Korea,APPSTORE:Japan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naverapp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPSTORE:Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaotalk</t>
+  </si>
+  <si>
+    <t>androidmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jp.naver.line.android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALE:Korea,LOCALE:Japan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naverapp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.nhn.android.search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALE:Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaotalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kakao.talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me2day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버라인,네이버LINE,NAVERLINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>competitor</t>
+  </si>
+  <si>
+    <t>OBJECT_NAME</t>
+  </si>
+  <si>
+    <t>네이버라인</t>
+  </si>
+  <si>
+    <t>네이버앱</t>
+  </si>
+  <si>
+    <t>카카오톡</t>
+  </si>
+  <si>
+    <t>네이버라인 OR 네이버LINE,NAVERLINE,naver ライン</t>
+  </si>
+  <si>
+    <t>competitor_subject</t>
+  </si>
+  <si>
+    <t>competitor_predicate</t>
+  </si>
+  <si>
+    <t>competitor_subject_predicate</t>
+  </si>
+  <si>
+    <t>competitor_subject_attribute</t>
+  </si>
+  <si>
+    <t>competitor_feature_subject</t>
+  </si>
+  <si>
+    <t>competitor_feature_predicate</t>
+  </si>
+  <si>
+    <t>competitor_feature_subject_predicate</t>
+  </si>
+  <si>
+    <t>competitor_feature_subject_attribute</t>
+  </si>
+  <si>
+    <t>경쟁자ID-경쟁자-주제어 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자ID-경쟁자-서술어 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자ID-경쟁자-주제어-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자ID-경쟁자-주제어-속성 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자ID-경쟁자-피쳐-주제어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자ID-경쟁자-피쳐-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자ID-경쟁자-피쳐-주제어-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자ID-경쟁자-피쳐-주제어-속성 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>피쳐 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>대표 피쳐: 피쳐분류중에 가장 매칭건수가 많은 대표 피쳐</t>
+  </si>
+  <si>
+    <t>피쳐</t>
+  </si>
+  <si>
+    <t>대표 피쳐</t>
+  </si>
+  <si>
+    <t>피쳐-주제어-속성 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>피쳐-주제어-서술어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>피쳐-주제어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>피쳐-서술어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>cooccurrence_freq</t>
+  </si>
+  <si>
+    <t>top_docs</t>
+  </si>
+  <si>
+    <t>top_positive_docs</t>
+  </si>
+  <si>
+    <t>top_negative_docs</t>
+  </si>
+  <si>
+    <t>feature_freq</t>
+  </si>
+  <si>
+    <t>subject_freq</t>
+  </si>
+  <si>
+    <t>predicate_freq</t>
+  </si>
+  <si>
+    <t>해당기간 전체 문서 건수</t>
+  </si>
+  <si>
+    <t>attribute_freq</t>
+  </si>
+  <si>
+    <t>속성 Frequency</t>
+  </si>
+  <si>
+    <t>Competitor/Feature/Subject/Predicate별 주간 집계</t>
+  </si>
+  <si>
+    <t>competitor_id</t>
+  </si>
+  <si>
+    <t>경쟁자 ID</t>
+  </si>
+  <si>
+    <t>경쟁자</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐-주제어-서술어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>Competitor/Feature/Subject별 주간 집계</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐-주제어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>Competitor/Feature/Subject/Attribute별 주간 집계</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐-주제어-속성 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>naverline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">:네이버라인 라인 네이버line line naverline naverライン ライン, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>kakaotalk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">:카카오톡 카카오* 카톡 kakao kakaotalk, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>mypeople</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>:마이피플 다음마이피플 다음마플 daum 마플 mypeople</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>naverapp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">:네이버앱 네이버app naverapp naver* 네이버*, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>daumapp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>:Daum앱 다음앱 다음* daum*</t>
+    </r>
+  </si>
+  <si>
+    <t>경쟁자 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>ko,ja</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>ko:./bin/feature/feature_default_ko.txt,ja:./bin/feature/feature_default_ja.txt</t>
+  </si>
+  <si>
+    <t>ko:./bin/feature/feature_default_ko.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,8 +1138,16 @@
       <name val="나눔고딕"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +1184,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -612,8 +1295,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="199">
+  <cellStyleXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -813,8 +1548,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -829,12 +1637,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,17 +1669,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="205" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="205" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="205" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="205" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="205" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="205" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="205" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,29 +1753,38 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="199">
+  <cellStyles count="270">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1013,6 +1884,41 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1112,7 +2018,43 @@
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="205"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1441,108 +2383,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D55"/>
+  <dimension ref="A2:D66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="82" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="19.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="82" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="20">
-      <c r="A2" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="43"/>
+      <c r="B4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="43"/>
+      <c r="B6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="43"/>
+      <c r="B7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="43"/>
+      <c r="B8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1551,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1563,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1575,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1587,11 +2529,11 @@
         <v>3</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1599,11 +2541,11 @@
         <v>4</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1611,47 +2553,47 @@
         <v>5</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="14">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="16">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="14">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="16">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1659,419 +2601,551 @@
         <v>11</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="16">
+      <c r="B24" s="35"/>
+      <c r="C24" s="14">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="16">
+      <c r="B26" s="35"/>
+      <c r="C26" s="14">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="14">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="14">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="14">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="14">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="14">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="16">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="16">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="16">
-        <v>18</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="16">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="14">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="14">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="14">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="14">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="14">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="14">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="14">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="14">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="14">
+        <v>28</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="14">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="14">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="37"/>
+      <c r="C43" s="14">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="14">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="14">
+        <v>35</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="14">
+        <v>36</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="14">
+        <v>37</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="14">
+        <v>38</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="15">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="44"/>
+      <c r="B53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="15">
+        <v>28</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="44"/>
+      <c r="B54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="15">
+        <v>29</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="44"/>
+      <c r="B55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="15">
+        <v>30</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="44"/>
+      <c r="B56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="15">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="15">
+        <v>27</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="44"/>
+      <c r="B58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="15">
+        <v>28</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="15">
+        <v>27</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="16">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="44"/>
+      <c r="B60" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="16">
-        <v>21</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="16">
-        <v>22</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="16">
-        <v>23</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="16">
-        <v>24</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="16">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="16">
-        <v>26</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="19" t="s">
+      <c r="C60" s="15">
+        <v>28</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="44"/>
+      <c r="B61" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="15">
+        <v>28</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="17">
+      <c r="B62" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="15">
         <v>27</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="17">
+      <c r="D62" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="44"/>
+      <c r="B63" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="15">
         <v>28</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="8" t="s">
+      <c r="D63" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="44"/>
+      <c r="B64" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="15">
         <v>29</v>
       </c>
-      <c r="C43" s="17">
-        <v>29</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="44"/>
+      <c r="B65" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="18"/>
-      <c r="B44" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="17">
-        <v>30</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="17">
+      <c r="D65" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="44"/>
+      <c r="B66" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="15">
         <v>31</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="17">
-        <v>27</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="18"/>
-      <c r="B47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="17">
-        <v>28</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="17">
-        <v>27</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="17">
-        <v>28</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="17">
-        <v>27</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="17">
-        <v>28</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="18"/>
-      <c r="B52" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="17">
-        <v>29</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="18"/>
-      <c r="B53" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="17">
-        <v>30</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="8" t="s">
+      <c r="D66" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C54" s="17">
-        <v>31</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="18"/>
-      <c r="B55" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="17">
-        <v>32</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2079,19 +3153,19 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A52:A56"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A50:D50"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="60"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="60"/>
     </ext>
   </extLst>
 </worksheet>
@@ -2099,60 +3173,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C87"/>
+  <dimension ref="A2:C166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="65.83203125" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="24.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="65.83203125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>110</v>
+      <c r="A3" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="28" t="s">
-        <v>111</v>
+      <c r="A4" s="49"/>
+      <c r="B4" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="15"/>
+      <c r="A5" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="13"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2160,7 +3234,7 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="18">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2171,7 +3245,7 @@
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="18">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2182,7 +3256,7 @@
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="18">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2191,776 +3265,3394 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="30">
+        <v>74</v>
+      </c>
+      <c r="B10" s="18">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="30">
+        <v>75</v>
+      </c>
+      <c r="B11" s="18">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="30">
+        <v>115</v>
+      </c>
+      <c r="B12" s="18">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="30">
+        <v>116</v>
+      </c>
+      <c r="B13" s="18">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="18">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20">
-      <c r="A16" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="18">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="18">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20">
+      <c r="A18" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B22" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="30">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="30">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="30">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="30">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B24" s="18">
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="30">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B25" s="18">
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="30">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="B26" s="18">
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="30">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B27" s="18">
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="30">
-        <v>8</v>
+        <v>117</v>
+      </c>
+      <c r="B28" s="18">
+        <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="18">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="18">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B31" s="18">
         <v>9</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20">
-      <c r="A31" s="22" t="s">
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="18">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="26" t="s">
+      <c r="A33" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="18">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20">
+      <c r="A35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="B39" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="30">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="30">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="30">
-        <v>3</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="30">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="30">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B40" s="18">
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="30">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B41" s="18">
+        <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="30">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B42" s="18">
+        <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="30">
+        <v>78</v>
+      </c>
+      <c r="B43" s="18">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="18">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="31"/>
-    </row>
-    <row r="45" spans="1:3" ht="20">
-      <c r="A45" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="18">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>79</v>
+      <c r="A46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="18">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" s="18">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" s="18">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>15</v>
+      <c r="A49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="18">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="30">
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="B50" s="18">
+        <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="30">
-        <v>2</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="30">
-        <v>3</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="19"/>
+    </row>
+    <row r="52" spans="1:3" ht="20">
+      <c r="A52" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="30">
-        <v>4</v>
+      <c r="A53" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="30">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A54" s="49"/>
+      <c r="B54" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="30">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="30">
-        <v>7</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>75</v>
+      <c r="A55" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1">
+      <c r="A56" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="30">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B57" s="18">
+        <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="18">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="18">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="20">
-      <c r="A59" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>79</v>
+      <c r="B60" s="18">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="18">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="18">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>15</v>
+      <c r="A63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="18">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="30">
-        <v>1</v>
+        <v>263</v>
+      </c>
+      <c r="B64" s="18">
+        <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="30">
-        <v>2</v>
+        <v>265</v>
+      </c>
+      <c r="B65" s="18">
+        <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="30">
-        <v>3</v>
+        <v>259</v>
+      </c>
+      <c r="B66" s="18">
+        <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="30">
+        <v>260</v>
+      </c>
+      <c r="B67" s="18">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="19"/>
+    </row>
+    <row r="69" spans="1:3" ht="20">
+      <c r="A69" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="49"/>
+      <c r="B71" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="18">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="18">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="18">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="18">
         <v>4</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B78" s="18">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="30">
-        <v>6</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="30">
-        <v>7</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="30">
-        <v>8</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="30">
-        <v>9</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20">
-      <c r="A74" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>15</v>
+      <c r="C78" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="30">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B79" s="18">
+        <v>6</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="30">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B80" s="18">
+        <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="30">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="B81" s="18">
+        <v>8</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="30">
-        <v>4</v>
+        <v>263</v>
+      </c>
+      <c r="B82" s="18">
+        <v>9</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="30">
-        <v>5</v>
+        <v>264</v>
+      </c>
+      <c r="B83" s="18">
+        <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="30">
-        <v>6</v>
+        <v>265</v>
+      </c>
+      <c r="B84" s="18">
+        <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="30">
-        <v>7</v>
+        <v>259</v>
+      </c>
+      <c r="B85" s="18">
+        <v>12</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B86" s="30">
+        <v>260</v>
+      </c>
+      <c r="B86" s="18">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="20">
+      <c r="A88" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="41"/>
+      <c r="C88" s="42"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="49"/>
+      <c r="B90" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="18">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="18">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="18">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="18">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="18">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="30">
+      <c r="B98" s="18">
+        <v>6</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="18">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="18">
+        <v>8</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" s="18">
         <v>9</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" s="18">
+        <v>10</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" s="18">
+        <v>11</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B104" s="18">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="18">
+        <v>13</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="20">
+      <c r="A107" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="49"/>
+      <c r="B109" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="18">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="18">
+        <v>2</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="18">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="B115" s="18">
+        <v>4</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116" s="18">
+        <v>5</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="18">
+        <v>6</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="18">
+        <v>7</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="18">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B120" s="18">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B121" s="18">
+        <v>10</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="18">
+        <v>11</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" s="18">
+        <v>12</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" s="18">
+        <v>13</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="20">
+      <c r="A126" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="41"/>
+      <c r="C126" s="42"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="49"/>
+      <c r="B128" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="18">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="18">
+        <v>2</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="18">
+        <v>3</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" s="18">
+        <v>4</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" s="18">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B136" s="18">
+        <v>6</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="18">
+        <v>7</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="18">
+        <v>8</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="18">
+        <v>9</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B140" s="18">
+        <v>10</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" s="18">
+        <v>11</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B142" s="18">
+        <v>12</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" s="18">
+        <v>13</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B144" s="18">
+        <v>14</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B145" s="18">
+        <v>15</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="20">
+      <c r="A147" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" s="41"/>
+      <c r="C147" s="42"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="49"/>
+      <c r="B149" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B150" s="13"/>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="18">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="18">
+        <v>2</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="18">
+        <v>3</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B155" s="18">
+        <v>4</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" s="18">
+        <v>5</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="18">
+        <v>6</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="18">
+        <v>7</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="18">
+        <v>8</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="18">
+        <v>9</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B161" s="18">
+        <v>10</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B162" s="18">
+        <v>11</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B163" s="18">
+        <v>12</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B164" s="18">
+        <v>13</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B165" s="18">
+        <v>14</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B166" s="18">
+        <v>15</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A60:A61"/>
+  <mergeCells count="18">
+    <mergeCell ref="A89:A90"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A147:C147"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="57" max="16383" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="67" max="16383" man="1"/>
+    <brk id="105" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="60"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="60"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="92.5" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30">
+      <c r="A2" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="23"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="23"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="23"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="23"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="23"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:M61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="28" customWidth="1"/>
+    <col min="5" max="10" width="9.83203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="28" customWidth="1"/>
+    <col min="12" max="13" width="9.83203125" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13">
+      <c r="A3" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="51"/>
+      <c r="B6" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="51"/>
+      <c r="B7" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="51"/>
+      <c r="B8" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="51"/>
+      <c r="B9" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="51"/>
+      <c r="B10" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="51"/>
+      <c r="B11" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="51"/>
+      <c r="B12" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="51"/>
+      <c r="B13" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="51"/>
+      <c r="B14" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="51"/>
+      <c r="B15" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="51"/>
+      <c r="B16" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="51"/>
+      <c r="B17" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="51"/>
+      <c r="B18" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="51"/>
+      <c r="B19" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="51"/>
+      <c r="B20" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="51"/>
+      <c r="B21" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="52"/>
+      <c r="B22" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="51"/>
+      <c r="B24" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="51"/>
+      <c r="B25" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="51"/>
+      <c r="B26" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="51"/>
+      <c r="B27" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="51"/>
+      <c r="B28" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="51"/>
+      <c r="B29" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="51"/>
+      <c r="B30" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="51"/>
+      <c r="B31" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="51"/>
+      <c r="B32" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="51"/>
+      <c r="B33" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="51"/>
+      <c r="B34" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="51"/>
+      <c r="B35" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="51"/>
+      <c r="B36" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="51"/>
+      <c r="B37" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="51"/>
+      <c r="B38" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="51"/>
+      <c r="B39" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="51"/>
+      <c r="B40" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="51"/>
+      <c r="B42" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="51"/>
+      <c r="B43" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="51"/>
+      <c r="B44" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="51"/>
+      <c r="B45" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="51"/>
+      <c r="B46" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="51"/>
+      <c r="B47" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="51"/>
+      <c r="B48" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="51"/>
+      <c r="B49" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="51"/>
+      <c r="B50" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="51"/>
+      <c r="B51" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="51"/>
+      <c r="B52" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="52"/>
+      <c r="B53" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="51"/>
+      <c r="B55" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="51"/>
+      <c r="B56" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="51"/>
+      <c r="B57" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="51"/>
+      <c r="B58" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="51"/>
+      <c r="B59" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="51"/>
+      <c r="B60" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A5:A22"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="25" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="63.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="27">
+        <v>443904275</v>
+      </c>
+      <c r="E2" s="26">
+        <v>3</v>
+      </c>
+      <c r="F2" s="26">
+        <v>5</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="27">
+        <v>393499958</v>
+      </c>
+      <c r="E3" s="26">
+        <v>3</v>
+      </c>
+      <c r="F3" s="26">
+        <v>5</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="27">
+        <v>362057947</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26">
+        <v>5</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="26">
+        <v>5</v>
+      </c>
+      <c r="F5" s="26">
+        <v>5</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="26">
+        <v>5</v>
+      </c>
+      <c r="F6" s="26">
+        <v>5</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="26">
+        <v>5</v>
+      </c>
+      <c r="F7" s="26">
+        <v>5</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="26">
+        <v>5</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" ht="45">
+      <c r="A9" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="26">
+        <v>5</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
+++ b/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="572"/>
+    <workbookView xWindow="100" yWindow="20" windowWidth="24440" windowHeight="14260" tabRatio="572"/>
   </bookViews>
   <sheets>
     <sheet name="source data" sheetId="2" r:id="rId1"/>
     <sheet name="summary data" sheetId="7" r:id="rId2"/>
-    <sheet name="competitor" sheetId="8" r:id="rId3"/>
-    <sheet name="collect_object" sheetId="9" r:id="rId4"/>
-    <sheet name="collect_object_data" sheetId="10" r:id="rId5"/>
+    <sheet name="collect_object" sheetId="9" r:id="rId3"/>
+    <sheet name="collect_object_data" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="286">
   <si>
     <t>site</t>
   </si>
@@ -46,9 +45,6 @@
     <t>feature</t>
   </si>
   <si>
-    <t>main_feature</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -295,15 +291,9 @@
     <t>subject_predicate</t>
   </si>
   <si>
-    <t>feature_subject_predicate</t>
-  </si>
-  <si>
     <t>subject_attribute</t>
   </si>
   <si>
-    <t>feature_subject_attribute</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
@@ -343,24 +333,12 @@
     <t>주제어-속성 조합의 집합(구분자: 공백)</t>
   </si>
   <si>
-    <t>feature1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가중치를 포함한 피쳐 분류 집합(구분자: 공백) </t>
-  </si>
-  <si>
     <t>me2day</t>
   </si>
   <si>
     <t>No.</t>
   </si>
   <si>
-    <t>피쳐-주제어-서술어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>피쳐-주제어-속성 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
     <t>기준시간(문서작성일자 기준)</t>
   </si>
   <si>
@@ -386,18 +364,6 @@
   </si>
   <si>
     <t>Feature/Predicate별 주간 집계</t>
-  </si>
-  <si>
-    <t>feature_subject</t>
-  </si>
-  <si>
-    <t>feature_predicate</t>
-  </si>
-  <si>
-    <t>피쳐-주제어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>피쳐-서술어 조합의 집합(구분자: 공백)</t>
   </si>
   <si>
     <t>주제어 집합(구분자: 공백)</t>
@@ -844,63 +810,12 @@
     <t>competitor_subject_attribute</t>
   </si>
   <si>
-    <t>competitor_feature_subject</t>
-  </si>
-  <si>
-    <t>competitor_feature_predicate</t>
-  </si>
-  <si>
-    <t>competitor_feature_subject_predicate</t>
-  </si>
-  <si>
-    <t>competitor_feature_subject_attribute</t>
-  </si>
-  <si>
-    <t>경쟁자ID-경쟁자-주제어 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자ID-경쟁자-서술어 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자ID-경쟁자-주제어-서술어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자ID-경쟁자-주제어-속성 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자ID-경쟁자-피쳐-주제어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자ID-경쟁자-피쳐-서술어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자ID-경쟁자-피쳐-주제어-서술어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자ID-경쟁자-피쳐-주제어-속성 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>피쳐 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>대표 피쳐: 피쳐분류중에 가장 매칭건수가 많은 대표 피쳐</t>
-  </si>
-  <si>
     <t>피쳐</t>
   </si>
   <si>
-    <t>대표 피쳐</t>
-  </si>
-  <si>
-    <t>피쳐-주제어-속성 Co-occurrence Frequency</t>
-  </si>
-  <si>
     <t>피쳐-주제어-서술어 Co-occurrence Frequency</t>
   </si>
   <si>
-    <t>피쳐-주제어 Co-occurrence Frequency</t>
-  </si>
-  <si>
     <t>피쳐-서술어 Co-occurrence Frequency</t>
   </si>
   <si>
@@ -916,9 +831,6 @@
     <t>top_negative_docs</t>
   </si>
   <si>
-    <t>feature_freq</t>
-  </si>
-  <si>
     <t>subject_freq</t>
   </si>
   <si>
@@ -946,120 +858,12 @@
     <t>경쟁자</t>
   </si>
   <si>
-    <t>경쟁자-피쳐-주제어-서술어 Co-occurrence Frequency</t>
-  </si>
-  <si>
     <t>Competitor/Feature/Subject별 주간 집계</t>
   </si>
   <si>
-    <t>경쟁자-피쳐-주제어 Co-occurrence Frequency</t>
-  </si>
-  <si>
     <t>Competitor/Feature/Subject/Attribute별 주간 집계</t>
   </si>
   <si>
-    <t>경쟁자-피쳐-주제어-속성 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>naverline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">:네이버라인 라인 네이버line line naverline naverライン ライン, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>kakaotalk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">:카카오톡 카카오* 카톡 kakao kakaotalk, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>mypeople</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>:마이피플 다음마이피플 다음마플 daum 마플 mypeople</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>naverapp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">:네이버앱 네이버app naverapp naver* 네이버*, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>daumapp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>:Daum앱 다음앱 다음* daum*</t>
-    </r>
-  </si>
-  <si>
     <t>경쟁자 집합(구분자: 공백)</t>
   </si>
   <si>
@@ -1073,6 +877,111 @@
   </si>
   <si>
     <t>ko:./bin/feature/feature_default_ko.txt</t>
+  </si>
+  <si>
+    <t>피쳐분류 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>featurecategory_subject</t>
+  </si>
+  <si>
+    <t>featurecategory</t>
+  </si>
+  <si>
+    <t>featurecategory1</t>
+  </si>
+  <si>
+    <t>main_featurecategory</t>
+  </si>
+  <si>
+    <t>featurecategory_predicate</t>
+  </si>
+  <si>
+    <t>featurecategory_subject_predicate</t>
+  </si>
+  <si>
+    <t>featurecategory_subject_attribute</t>
+  </si>
+  <si>
+    <t>competitor_featurecategory_subject</t>
+  </si>
+  <si>
+    <t>competitor_featurecategory_predicate</t>
+  </si>
+  <si>
+    <t>competitor_featurecategory_subject_predicate</t>
+  </si>
+  <si>
+    <t>competitor_featurecategory_subject_attribute</t>
+  </si>
+  <si>
+    <t>경쟁자-주제어 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가중치를 포함한 피쳐분류 집합(구분자: 공백) </t>
+  </si>
+  <si>
+    <t>대표 피쳐분류: 피쳐분류중에 가장 매칭건수가 많은 대표 피쳐분류</t>
+  </si>
+  <si>
+    <t>피쳐분류-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어-속성 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-서술어 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-주제어-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-주제어-속성 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어-속성 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>대표 피쳐분류</t>
+  </si>
+  <si>
+    <t>피쳐분류 Frequency</t>
+  </si>
+  <si>
+    <t>피쳐분류</t>
+  </si>
+  <si>
+    <t>featurecategory_freq</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어-속성 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어-서술어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어-속성 Co-occurrence Frequency</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1257,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="270">
+  <cellStyleXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1621,8 +1530,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1683,15 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1771,6 +1673,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1780,11 +1685,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="205" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="270">
+  <cellStyles count="272">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1919,6 +1821,7 @@
     <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2053,6 +1956,7 @@
     <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="205"/>
   </cellStyles>
@@ -2385,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2399,93 +2303,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="20">
-      <c r="A2" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="43" t="s">
-        <v>100</v>
+      <c r="A3" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="43"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="43" t="s">
-        <v>60</v>
+      <c r="A5" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="43"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="43"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="43"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2497,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2509,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2521,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2533,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2545,7 +2449,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2557,86 +2461,86 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="14">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="14">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="14">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="14">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="14">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="14">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="35"/>
+      <c r="A24" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="32"/>
       <c r="C24" s="14">
         <v>13</v>
       </c>
@@ -2646,290 +2550,290 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="14">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="35"/>
+      <c r="A26" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="32"/>
       <c r="C26" s="14">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="14">
         <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="35"/>
+      <c r="A28" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="32"/>
       <c r="C28" s="14">
         <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="35"/>
+      <c r="A29" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="32"/>
       <c r="C29" s="14">
         <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="35"/>
+      <c r="A30" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="32"/>
       <c r="C30" s="14">
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="35"/>
+      <c r="A31" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="32"/>
       <c r="C31" s="14">
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="35"/>
+      <c r="A32" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="32"/>
       <c r="C32" s="14">
         <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="35"/>
+      <c r="A33" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="32"/>
       <c r="C33" s="14">
         <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="35"/>
+      <c r="A34" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="32"/>
       <c r="C34" s="14">
         <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="35"/>
+      <c r="A35" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="32"/>
       <c r="C35" s="14">
         <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="35"/>
+      <c r="A36" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" s="32"/>
       <c r="C36" s="14">
         <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="35"/>
+      <c r="A37" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="32"/>
       <c r="C37" s="14">
         <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="B38" s="37"/>
+      <c r="A38" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="34"/>
       <c r="C38" s="14">
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" s="37"/>
+      <c r="A39" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="34"/>
       <c r="C39" s="14">
         <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" s="37"/>
+      <c r="A40" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="34"/>
       <c r="C40" s="14">
         <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B41" s="37"/>
+      <c r="A41" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="34"/>
       <c r="C41" s="14">
         <v>31</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B42" s="37"/>
+      <c r="A42" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="34"/>
       <c r="C42" s="14">
         <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="B43" s="37"/>
+      <c r="A43" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="34"/>
       <c r="C43" s="14">
         <v>33</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="B44" s="37"/>
+      <c r="A44" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="34"/>
       <c r="C44" s="14">
         <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="37"/>
+      <c r="A45" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" s="34"/>
       <c r="C45" s="14">
         <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="B46" s="37"/>
+      <c r="A46" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" s="34"/>
       <c r="C46" s="14">
         <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="39"/>
+      <c r="A47" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="36"/>
       <c r="C47" s="14">
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="39"/>
+      <c r="A48" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="36"/>
       <c r="C48" s="14">
         <v>38</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2939,213 +2843,213 @@
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
+      <c r="A50" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="44"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="44" t="s">
-        <v>94</v>
+      <c r="A52" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="15">
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="44"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="15">
         <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="44"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="15">
         <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="44"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="15">
         <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="44"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="15">
         <v>31</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="44" t="s">
-        <v>95</v>
+      <c r="A57" s="41" t="s">
+        <v>92</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="15">
         <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="44"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" s="15">
         <v>28</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="44" t="s">
-        <v>103</v>
+      <c r="A59" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="15">
         <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="41"/>
+      <c r="B60" s="6" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="44"/>
-      <c r="B60" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C60" s="15">
         <v>28</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="44"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C61" s="15">
         <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="44" t="s">
-        <v>108</v>
+      <c r="A62" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="15">
         <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="44"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="15">
         <v>28</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="44"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="15">
         <v>29</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="44"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="15">
         <v>30</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="44"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="15">
         <v>31</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3066,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="60"/>
@@ -3173,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C166"/>
+  <dimension ref="A2:C167"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3188,46 +3091,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="48" t="s">
-        <v>100</v>
+      <c r="A3" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3238,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3249,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3260,127 +3163,127 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="18">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="18">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B12" s="18">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B13" s="18">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="18">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B15" s="18">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B16" s="18">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20">
-      <c r="A18" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="48" t="s">
-        <v>100</v>
+      <c r="A19" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="49"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3391,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3402,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3413,157 +3316,157 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="18">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="B27" s="18">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="B28" s="18">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B29" s="18">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B30" s="18">
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B31" s="18">
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="B32" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B33" s="18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="18">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20">
+      <c r="A36" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20">
-      <c r="A35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="13"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="18">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="18">
         <v>1</v>
-      </c>
-      <c r="B41" s="18">
-        <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
@@ -3571,168 +3474,168 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="18">
         <v>2</v>
       </c>
-      <c r="B42" s="18">
-        <v>3</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B43" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B44" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>253</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="B45" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B46" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="B47" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B48" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B49" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B50" s="18">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="18">
         <v>11</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="19"/>
+    </row>
+    <row r="53" spans="1:3" ht="20">
+      <c r="A53" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="19"/>
-    </row>
-    <row r="52" spans="1:3" ht="20">
-      <c r="A52" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="13"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1">
+      <c r="A57" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="18">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="18">
         <v>1</v>
-      </c>
-      <c r="B58" s="18">
-        <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
@@ -3740,168 +3643,168 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="18">
         <v>2</v>
       </c>
-      <c r="B59" s="18">
-        <v>3</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B60" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B61" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>253</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B63" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="B64" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B65" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B66" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>258</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B67" s="18">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="18">
         <v>11</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="19"/>
+    </row>
+    <row r="70" spans="1:3" ht="20">
+      <c r="A70" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="39"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="19"/>
-    </row>
-    <row r="69" spans="1:3" ht="20">
-      <c r="A69" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="49"/>
-      <c r="B71" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="2"/>
-    </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="13"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="18">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="18">
         <v>1</v>
-      </c>
-      <c r="B75" s="18">
-        <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
@@ -3909,185 +3812,185 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="18">
         <v>2</v>
       </c>
-      <c r="B76" s="18">
-        <v>3</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B77" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B78" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>253</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="B79" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B80" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B81" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="B82" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B83" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="B84" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B85" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B86" s="18">
+        <v>12</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" s="18">
         <v>13</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="20">
+      <c r="A89" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="38"/>
+      <c r="C89" s="39"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20">
-      <c r="A88" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="42"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="49"/>
-      <c r="B90" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="2"/>
-    </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="13"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="18">
-        <v>1</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="18">
         <v>1</v>
-      </c>
-      <c r="B94" s="18">
-        <v>2</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
@@ -4095,185 +3998,185 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="18">
         <v>2</v>
       </c>
-      <c r="B95" s="18">
-        <v>3</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B96" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B97" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>253</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="B98" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B99" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B100" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>266</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="B101" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B102" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B103" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B104" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B105" s="18">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" s="18">
         <v>13</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="20">
+      <c r="A108" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" s="38"/>
+      <c r="C108" s="39"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="20">
-      <c r="A107" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="42"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="49"/>
-      <c r="B109" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C109" s="2"/>
-    </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110" s="13"/>
+      <c r="A110" s="46"/>
+      <c r="B110" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="18">
-        <v>1</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="18">
         <v>1</v>
-      </c>
-      <c r="B113" s="18">
-        <v>2</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
@@ -4281,185 +4184,185 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="18">
         <v>2</v>
       </c>
-      <c r="B114" s="18">
-        <v>3</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B115" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="B116" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B117" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" s="18">
         <v>6</v>
       </c>
-      <c r="B118" s="18">
-        <v>7</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="B119" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B120" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="B121" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B122" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B123" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>275</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B124" s="18">
+        <v>12</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" s="18">
         <v>13</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="20">
+      <c r="A127" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B127" s="38"/>
+      <c r="C127" s="39"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="20">
-      <c r="A126" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="42"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="49"/>
-      <c r="B128" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C128" s="2"/>
-    </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B129" s="13"/>
+      <c r="A129" s="46"/>
+      <c r="B129" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" s="13"/>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C131" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="18">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="18">
         <v>1</v>
-      </c>
-      <c r="B132" s="18">
-        <v>2</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>16</v>
@@ -4467,207 +4370,207 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="18">
         <v>2</v>
       </c>
-      <c r="B133" s="18">
-        <v>3</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B134" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="B135" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B136" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B137" s="18">
         <v>6</v>
       </c>
-      <c r="B137" s="18">
-        <v>7</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="B138" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B139" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B140" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="B141" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B142" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="B143" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B144" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>273</v>
+        <v>68</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B145" s="18">
+        <v>14</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" s="18">
         <v>15</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="20">
+      <c r="A148" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B148" s="38"/>
+      <c r="C148" s="39"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="20">
-      <c r="A147" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="41"/>
-      <c r="C147" s="42"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="49"/>
-      <c r="B149" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C149" s="2"/>
-    </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B150" s="13"/>
+      <c r="A150" s="46"/>
+      <c r="B150" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="16" t="s">
+      <c r="A151" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B151" s="13"/>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C152" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" s="18">
-        <v>1</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="18">
         <v>1</v>
-      </c>
-      <c r="B153" s="18">
-        <v>2</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>16</v>
@@ -4675,173 +4578,185 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="18">
         <v>2</v>
       </c>
-      <c r="B154" s="18">
-        <v>3</v>
-      </c>
       <c r="C154" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B155" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="B156" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B157" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B158" s="18">
         <v>6</v>
       </c>
-      <c r="B158" s="18">
-        <v>7</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="B159" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B160" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B161" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>266</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="B162" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B163" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>67</v>
+        <v>278</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B164" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B165" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B166" s="18">
+        <v>14</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B167" s="18">
         <v>15</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>72</v>
+      <c r="C167" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A90:A91"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A89:C89"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A71:A72"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="67" max="16383" man="1"/>
-    <brk id="105" max="16383" man="1"/>
+    <brk id="68" max="16383" man="1"/>
+    <brk id="106" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4856,1492 +4771,1428 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="92.5" style="22" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="30">
-      <c r="A2" s="23" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="23"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="23"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="23"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="23"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="23"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="23"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="23"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A3:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="28" customWidth="1"/>
-    <col min="5" max="10" width="9.83203125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="28" customWidth="1"/>
-    <col min="12" max="13" width="9.83203125" style="28" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="28"/>
+    <col min="1" max="1" width="11.33203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="25" customWidth="1"/>
+    <col min="5" max="10" width="9.83203125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="25" customWidth="1"/>
+    <col min="12" max="13" width="9.83203125" style="25" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
+      <c r="K4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53" t="s">
+      <c r="B5" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="29" t="s">
+      <c r="C5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="49"/>
+      <c r="B6" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="C6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="49"/>
+      <c r="B7" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="C7" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="49"/>
+      <c r="B8" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="C8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="49"/>
+      <c r="B9" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="C9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="49"/>
+      <c r="B10" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="49"/>
+      <c r="B11" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="C11" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="49"/>
+      <c r="B12" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="C12" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="49"/>
+      <c r="B13" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="29" t="s">
+      <c r="C13" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="49"/>
+      <c r="B14" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="49"/>
+      <c r="B15" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="49"/>
+      <c r="B16" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="49"/>
+      <c r="B17" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="49"/>
+      <c r="B18" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="49"/>
+      <c r="B19" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="49"/>
+      <c r="B20" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="49"/>
+      <c r="B21" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="50"/>
+      <c r="B22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="49"/>
+      <c r="B24" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="49"/>
+      <c r="B25" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="49"/>
+      <c r="B26" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="49"/>
+      <c r="B27" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="49"/>
+      <c r="B28" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="49"/>
+      <c r="B29" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="49"/>
+      <c r="B30" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="49"/>
+      <c r="B31" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="49"/>
+      <c r="B32" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="49"/>
+      <c r="B33" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="49"/>
+      <c r="B34" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="49"/>
+      <c r="B35" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="49"/>
+      <c r="B36" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="49"/>
+      <c r="B37" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="49"/>
+      <c r="B38" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="49"/>
+      <c r="B39" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="49"/>
+      <c r="B40" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="49"/>
+      <c r="B42" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="49"/>
+      <c r="B43" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="49"/>
+      <c r="B44" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="49"/>
+      <c r="B45" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="49"/>
+      <c r="B46" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="49"/>
+      <c r="B47" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="49"/>
+      <c r="B48" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="C48" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="49"/>
+      <c r="B49" s="27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="C49" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="49"/>
+      <c r="B50" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="49"/>
+      <c r="B51" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="49"/>
+      <c r="B52" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="51"/>
-      <c r="B6" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="51"/>
-      <c r="B7" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="51"/>
-      <c r="B8" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="51"/>
-      <c r="B9" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="51"/>
-      <c r="B10" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="51"/>
-      <c r="B11" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="51"/>
-      <c r="B12" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="51"/>
-      <c r="B13" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="51"/>
-      <c r="B14" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="51"/>
-      <c r="B15" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="51"/>
-      <c r="B16" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="51"/>
-      <c r="B17" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="51"/>
-      <c r="B18" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="51"/>
-      <c r="B19" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="51"/>
-      <c r="B20" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="51"/>
-      <c r="B21" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="52"/>
-      <c r="B22" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="51"/>
-      <c r="B24" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="51"/>
-      <c r="B25" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="51"/>
-      <c r="B26" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="51"/>
-      <c r="B27" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="51"/>
-      <c r="B28" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="51"/>
-      <c r="B29" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="51"/>
-      <c r="B30" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="51"/>
-      <c r="B31" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="51"/>
-      <c r="B32" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="51"/>
-      <c r="B33" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="51"/>
-      <c r="B34" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="51"/>
-      <c r="B35" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="51"/>
-      <c r="B36" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="51"/>
-      <c r="B37" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="51"/>
-      <c r="B38" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="51"/>
-      <c r="B39" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="51"/>
-      <c r="B40" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="50" t="s">
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="50"/>
+      <c r="B53" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="C53" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="51"/>
-      <c r="B42" s="30" t="s">
+      <c r="B54" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="51"/>
-      <c r="B43" s="30" t="s">
+      <c r="C54" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="49"/>
+      <c r="B55" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="51"/>
-      <c r="B44" s="30" t="s">
+      <c r="C55" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="49"/>
+      <c r="B56" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="51"/>
-      <c r="B45" s="30" t="s">
+      <c r="C56" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="49"/>
+      <c r="B57" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="51"/>
-      <c r="B46" s="30" t="s">
+      <c r="C57" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="49"/>
+      <c r="B58" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="51"/>
-      <c r="B47" s="30" t="s">
+      <c r="C58" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="49"/>
+      <c r="B59" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="51"/>
-      <c r="B48" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="51"/>
-      <c r="B49" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="51"/>
-      <c r="B50" s="30" t="s">
+      <c r="C59" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="49"/>
+      <c r="B60" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="51"/>
-      <c r="B51" s="30" t="s">
+      <c r="C60" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="51"/>
-      <c r="B52" s="30" t="s">
+      <c r="B61" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="52"/>
-      <c r="B53" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="51"/>
-      <c r="B55" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="51"/>
-      <c r="B56" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="51"/>
-      <c r="B57" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="51"/>
-      <c r="B58" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="51"/>
-      <c r="B59" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="51"/>
-      <c r="B60" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
+      <c r="C61" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61" s="28"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6364,7 +6215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -6372,284 +6223,283 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="25" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="63.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="25"/>
+    <col min="1" max="1" width="16.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="22" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="63.33203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="24">
+        <v>443904275</v>
+      </c>
+      <c r="E2" s="23">
+        <v>3</v>
+      </c>
+      <c r="F2" s="23">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="24">
+        <v>393499958</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3</v>
+      </c>
+      <c r="F3" s="23">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="24">
+        <v>362057947</v>
+      </c>
+      <c r="E4" s="23">
+        <v>3</v>
+      </c>
+      <c r="F4" s="23">
+        <v>5</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="24" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="B5" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="E5" s="23">
+        <v>5</v>
+      </c>
+      <c r="F5" s="23">
+        <v>5</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="24" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="C6" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="E6" s="23">
+        <v>5</v>
+      </c>
+      <c r="F6" s="23">
+        <v>5</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="26" t="s">
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="27">
-        <v>443904275</v>
-      </c>
-      <c r="E2" s="26">
-        <v>3</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="C7" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="23">
         <v>5</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30">
-      <c r="A3" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="F7" s="23">
+        <v>5</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="27">
-        <v>393499958</v>
-      </c>
-      <c r="E3" s="26">
-        <v>3</v>
-      </c>
-      <c r="F3" s="26">
+      <c r="B8" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="23">
         <v>5</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="F8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" ht="45">
+      <c r="A9" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="27">
-        <v>362057947</v>
-      </c>
-      <c r="E4" s="26">
-        <v>3</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="B9" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="23">
         <v>5</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="26">
-        <v>5</v>
-      </c>
-      <c r="F5" s="26">
-        <v>5</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="26">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26">
-        <v>5</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="26">
-        <v>5</v>
-      </c>
-      <c r="F7" s="26">
-        <v>5</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
-      <c r="A8" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="26">
-        <v>5</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="F9" s="23">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="45">
-      <c r="A9" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="26">
-        <v>5</v>
-      </c>
-      <c r="F9" s="26">
-        <v>1</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" s="26"/>
+      <c r="G9" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
+++ b/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="20" windowWidth="24440" windowHeight="14260" tabRatio="572"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="572" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="source data" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="288">
   <si>
     <t>site</t>
   </si>
@@ -709,10 +709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FEATURE_CLASSIFIERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXTENDED_ATTRIBUTES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -873,12 +869,6 @@
     <t>ko</t>
   </si>
   <si>
-    <t>ko:./bin/feature/feature_default_ko.txt,ja:./bin/feature/feature_default_ja.txt</t>
-  </si>
-  <si>
-    <t>ko:./bin/feature/feature_default_ko.txt</t>
-  </si>
-  <si>
     <t>피쳐분류 집합(구분자: 공백)</t>
   </si>
   <si>
@@ -982,6 +972,21 @@
   </si>
   <si>
     <t>경쟁자-피쳐분류-주제어-속성 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>COMPETITOR_DICTIONARY</t>
+  </si>
+  <si>
+    <t>ko:./bin/dic/feature/feature_mobile_ko.txt,ja:./bin/dic/feature/feature_mobile_ja.txt</t>
+  </si>
+  <si>
+    <t>ko:./bin/dic/feature/feature_mobile_ko.txt</t>
+  </si>
+  <si>
+    <t>./bin/dic/competitor/competitor_mobile.txt</t>
+  </si>
+  <si>
+    <t>FEATURE_DICTIONARIES</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1262,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="272">
+  <cellStyleXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1466,6 +1471,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1686,7 +1705,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="272">
+  <cellStyles count="286">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1822,6 +1841,13 @@
     <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1957,6 +1983,13 @@
     <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="205"/>
   </cellStyles>
@@ -2289,7 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -2538,38 +2571,38 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="14">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="14">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="14">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2658,158 +2691,158 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="14">
         <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="14">
         <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="14">
         <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="14">
         <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="14">
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="14">
         <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="14">
         <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="14">
         <v>31</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="14">
         <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="14">
         <v>33</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="14">
         <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="14">
         <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="14">
         <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3223,7 +3256,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="18">
         <v>8</v>
@@ -3234,7 +3267,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="18">
         <v>8</v>
@@ -3332,13 +3365,13 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B27" s="18">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3360,7 +3393,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3398,7 +3431,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="18">
         <v>11</v>
@@ -3409,7 +3442,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="18">
         <v>12</v>
@@ -3507,13 +3540,13 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B45" s="18">
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3535,23 +3568,23 @@
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B48" s="18">
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B49" s="18">
         <v>9</v>
@@ -3562,18 +3595,18 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B50" s="18">
         <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B51" s="18">
         <v>11</v>
@@ -3682,7 +3715,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3704,23 +3737,23 @@
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B65" s="18">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B66" s="18">
         <v>9</v>
@@ -3731,18 +3764,18 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" s="18">
         <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B68" s="18">
         <v>11</v>
@@ -3845,13 +3878,13 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B79" s="18">
         <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3884,23 +3917,23 @@
         <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B83" s="18">
         <v>9</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B84" s="18">
         <v>10</v>
@@ -3911,7 +3944,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B85" s="18">
         <v>11</v>
@@ -3922,18 +3955,18 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B86" s="18">
         <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B87" s="18">
         <v>13</v>
@@ -4031,13 +4064,13 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B98" s="18">
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4070,23 +4103,23 @@
         <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B102" s="18">
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103" s="18">
         <v>10</v>
@@ -4097,29 +4130,29 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" s="18">
         <v>11</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B105" s="18">
         <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B106" s="18">
         <v>13</v>
@@ -4130,7 +4163,7 @@
     </row>
     <row r="108" spans="1:3" ht="20">
       <c r="A108" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B108" s="38"/>
       <c r="C108" s="39"/>
@@ -4217,35 +4250,35 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B117" s="18">
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B118" s="18">
         <v>6</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B119" s="18">
         <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4267,23 +4300,23 @@
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B122" s="18">
         <v>10</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B123" s="18">
         <v>11</v>
@@ -4294,18 +4327,18 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B124" s="18">
         <v>12</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B125" s="18">
         <v>13</v>
@@ -4316,7 +4349,7 @@
     </row>
     <row r="127" spans="1:3" ht="20">
       <c r="A127" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B127" s="38"/>
       <c r="C127" s="39"/>
@@ -4403,35 +4436,35 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B136" s="18">
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B137" s="18">
         <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B138" s="18">
         <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4464,12 +4497,12 @@
         <v>10</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B142" s="18">
         <v>11</v>
@@ -4480,7 +4513,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B143" s="18">
         <v>12</v>
@@ -4491,7 +4524,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B144" s="18">
         <v>13</v>
@@ -4502,18 +4535,18 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B145" s="18">
         <v>14</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B146" s="18">
         <v>15</v>
@@ -4524,7 +4557,7 @@
     </row>
     <row r="148" spans="1:3" ht="20">
       <c r="A148" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B148" s="38"/>
       <c r="C148" s="39"/>
@@ -4611,35 +4644,35 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B157" s="18">
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B158" s="18">
         <v>6</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B159" s="18">
         <v>7</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4672,23 +4705,23 @@
         <v>10</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B163" s="18">
         <v>11</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B164" s="18">
         <v>12</v>
@@ -4699,29 +4732,29 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165" s="18">
         <v>13</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B166" s="18">
         <v>14</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B167" s="18">
         <v>15</v>
@@ -4732,12 +4765,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A148:C148"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A2:C2"/>
@@ -4750,10 +4777,15 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A148:C148"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="68" max="16383" man="1"/>
     <brk id="106" max="16383" man="1"/>
@@ -6220,10 +6252,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6234,13 +6266,14 @@
     <col min="4" max="4" width="31.6640625" style="22" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="22" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.33203125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="22"/>
+    <col min="9" max="9" width="33.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40" customHeight="1">
+    <row r="1" spans="1:10" ht="40" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>194</v>
       </c>
@@ -6248,7 +6281,7 @@
         <v>195</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>196</v>
@@ -6263,21 +6296,24 @@
         <v>199</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="40" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="24">
         <v>443904275</v>
@@ -6289,24 +6325,27 @@
         <v>5</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+        <v>286</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="24">
         <v>393499958</v>
@@ -6318,24 +6357,27 @@
         <v>5</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>286</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="24">
         <v>362057947</v>
@@ -6347,27 +6389,30 @@
         <v>5</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30">
+        <v>286</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>207</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>208</v>
       </c>
       <c r="E5" s="23">
         <v>5</v>
@@ -6376,27 +6421,30 @@
         <v>5</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="I5" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="E6" s="23">
         <v>5</v>
@@ -6405,27 +6453,30 @@
         <v>5</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="I6" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>213</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>214</v>
       </c>
       <c r="E7" s="23">
         <v>5</v>
@@ -6434,27 +6485,30 @@
         <v>5</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
+        <v>286</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>215</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>216</v>
       </c>
       <c r="E8" s="23">
         <v>5</v>
@@ -6463,25 +6517,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" ht="45">
+        <v>285</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="23">
         <v>5</v>
@@ -6490,12 +6547,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="I9" s="23"/>
+        <v>284</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
+++ b/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="572" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="572" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="source data" sheetId="2" r:id="rId1"/>
@@ -768,225 +768,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>competitor</t>
+  </si>
+  <si>
+    <t>OBJECT_NAME</t>
+  </si>
+  <si>
+    <t>네이버라인</t>
+  </si>
+  <si>
+    <t>네이버앱</t>
+  </si>
+  <si>
+    <t>카카오톡</t>
+  </si>
+  <si>
+    <t>네이버라인 OR 네이버LINE,NAVERLINE,naver ライン</t>
+  </si>
+  <si>
+    <t>competitor_subject</t>
+  </si>
+  <si>
+    <t>competitor_predicate</t>
+  </si>
+  <si>
+    <t>competitor_subject_predicate</t>
+  </si>
+  <si>
+    <t>competitor_subject_attribute</t>
+  </si>
+  <si>
+    <t>피쳐</t>
+  </si>
+  <si>
+    <t>피쳐-주제어-서술어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>피쳐-서술어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>cooccurrence_freq</t>
+  </si>
+  <si>
+    <t>top_docs</t>
+  </si>
+  <si>
+    <t>top_positive_docs</t>
+  </si>
+  <si>
+    <t>top_negative_docs</t>
+  </si>
+  <si>
+    <t>subject_freq</t>
+  </si>
+  <si>
+    <t>predicate_freq</t>
+  </si>
+  <si>
+    <t>해당기간 전체 문서 건수</t>
+  </si>
+  <si>
+    <t>attribute_freq</t>
+  </si>
+  <si>
+    <t>속성 Frequency</t>
+  </si>
+  <si>
+    <t>Competitor/Feature/Subject/Predicate별 주간 집계</t>
+  </si>
+  <si>
+    <t>competitor_id</t>
+  </si>
+  <si>
+    <t>경쟁자 ID</t>
+  </si>
+  <si>
+    <t>경쟁자</t>
+  </si>
+  <si>
+    <t>Competitor/Feature/Subject별 주간 집계</t>
+  </si>
+  <si>
+    <t>Competitor/Feature/Subject/Attribute별 주간 집계</t>
+  </si>
+  <si>
+    <t>경쟁자 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>ko,ja</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>피쳐분류 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>featurecategory_subject</t>
+  </si>
+  <si>
+    <t>featurecategory</t>
+  </si>
+  <si>
+    <t>featurecategory1</t>
+  </si>
+  <si>
+    <t>main_featurecategory</t>
+  </si>
+  <si>
+    <t>featurecategory_predicate</t>
+  </si>
+  <si>
+    <t>featurecategory_subject_predicate</t>
+  </si>
+  <si>
+    <t>featurecategory_subject_attribute</t>
+  </si>
+  <si>
+    <t>competitor_featurecategory_subject</t>
+  </si>
+  <si>
+    <t>competitor_featurecategory_predicate</t>
+  </si>
+  <si>
+    <t>competitor_featurecategory_subject_predicate</t>
+  </si>
+  <si>
+    <t>competitor_featurecategory_subject_attribute</t>
+  </si>
+  <si>
+    <t>경쟁자-주제어 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가중치를 포함한 피쳐분류 집합(구분자: 공백) </t>
+  </si>
+  <si>
+    <t>대표 피쳐분류: 피쳐분류중에 가장 매칭건수가 많은 대표 피쳐분류</t>
+  </si>
+  <si>
+    <t>피쳐분류-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어-속성 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-서술어 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-주제어-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-주제어-속성 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어-서술어 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어-속성 조합의 집합(구분자: 공백)</t>
+  </si>
+  <si>
+    <t>대표 피쳐분류</t>
+  </si>
+  <si>
+    <t>피쳐분류 Frequency</t>
+  </si>
+  <si>
+    <t>피쳐분류</t>
+  </si>
+  <si>
+    <t>featurecategory_freq</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>피쳐분류-주제어-속성 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어-서술어 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>경쟁자-피쳐분류-주제어-속성 Co-occurrence Frequency</t>
+  </si>
+  <si>
+    <t>COMPETITOR_DICTIONARY</t>
+  </si>
+  <si>
+    <t>ko:./bin/dic/feature/feature_mobile_ko.txt,ja:./bin/dic/feature/feature_mobile_ja.txt</t>
+  </si>
+  <si>
+    <t>ko:./bin/dic/feature/feature_mobile_ko.txt</t>
+  </si>
+  <si>
+    <t>./bin/dic/competitor/competitor_mobile.txt</t>
+  </si>
+  <si>
+    <t>FEATURE_DICTIONARIES</t>
+  </si>
+  <si>
     <t>네이버라인,네이버LINE,NAVERLINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>competitor</t>
-  </si>
-  <si>
-    <t>OBJECT_NAME</t>
-  </si>
-  <si>
-    <t>네이버라인</t>
-  </si>
-  <si>
-    <t>네이버앱</t>
-  </si>
-  <si>
-    <t>카카오톡</t>
-  </si>
-  <si>
-    <t>네이버라인 OR 네이버LINE,NAVERLINE,naver ライン</t>
-  </si>
-  <si>
-    <t>competitor_subject</t>
-  </si>
-  <si>
-    <t>competitor_predicate</t>
-  </si>
-  <si>
-    <t>competitor_subject_predicate</t>
-  </si>
-  <si>
-    <t>competitor_subject_attribute</t>
-  </si>
-  <si>
-    <t>피쳐</t>
-  </si>
-  <si>
-    <t>피쳐-주제어-서술어 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <t>피쳐-서술어 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <t>cooccurrence_freq</t>
-  </si>
-  <si>
-    <t>top_docs</t>
-  </si>
-  <si>
-    <t>top_positive_docs</t>
-  </si>
-  <si>
-    <t>top_negative_docs</t>
-  </si>
-  <si>
-    <t>subject_freq</t>
-  </si>
-  <si>
-    <t>predicate_freq</t>
-  </si>
-  <si>
-    <t>해당기간 전체 문서 건수</t>
-  </si>
-  <si>
-    <t>attribute_freq</t>
-  </si>
-  <si>
-    <t>속성 Frequency</t>
-  </si>
-  <si>
-    <t>Competitor/Feature/Subject/Predicate별 주간 집계</t>
-  </si>
-  <si>
-    <t>competitor_id</t>
-  </si>
-  <si>
-    <t>경쟁자 ID</t>
-  </si>
-  <si>
-    <t>경쟁자</t>
-  </si>
-  <si>
-    <t>Competitor/Feature/Subject별 주간 집계</t>
-  </si>
-  <si>
-    <t>Competitor/Feature/Subject/Attribute별 주간 집계</t>
-  </si>
-  <si>
-    <t>경쟁자 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>ko,ja</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>피쳐분류 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>featurecategory_subject</t>
-  </si>
-  <si>
-    <t>featurecategory</t>
-  </si>
-  <si>
-    <t>featurecategory1</t>
-  </si>
-  <si>
-    <t>main_featurecategory</t>
-  </si>
-  <si>
-    <t>featurecategory_predicate</t>
-  </si>
-  <si>
-    <t>featurecategory_subject_predicate</t>
-  </si>
-  <si>
-    <t>featurecategory_subject_attribute</t>
-  </si>
-  <si>
-    <t>competitor_featurecategory_subject</t>
-  </si>
-  <si>
-    <t>competitor_featurecategory_predicate</t>
-  </si>
-  <si>
-    <t>competitor_featurecategory_subject_predicate</t>
-  </si>
-  <si>
-    <t>competitor_featurecategory_subject_attribute</t>
-  </si>
-  <si>
-    <t>경쟁자-주제어 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>피쳐분류-주제어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가중치를 포함한 피쳐분류 집합(구분자: 공백) </t>
-  </si>
-  <si>
-    <t>대표 피쳐분류: 피쳐분류중에 가장 매칭건수가 많은 대표 피쳐분류</t>
-  </si>
-  <si>
-    <t>피쳐분류-서술어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>피쳐분류-주제어-서술어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>피쳐분류-주제어-속성 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자-서술어 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자-주제어-서술어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자-주제어-속성 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자-피쳐분류-주제어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자-피쳐분류-서술어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자-피쳐분류-주제어-서술어 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>경쟁자-피쳐분류-주제어-속성 조합의 집합(구분자: 공백)</t>
-  </si>
-  <si>
-    <t>대표 피쳐분류</t>
-  </si>
-  <si>
-    <t>피쳐분류 Frequency</t>
-  </si>
-  <si>
-    <t>피쳐분류</t>
-  </si>
-  <si>
-    <t>featurecategory_freq</t>
-  </si>
-  <si>
-    <t>피쳐분류-주제어 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <t>피쳐분류-주제어-속성 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <t>경쟁자-피쳐분류-주제어 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <t>경쟁자-피쳐분류-주제어-서술어 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <t>경쟁자-피쳐분류-주제어-속성 Co-occurrence Frequency</t>
-  </si>
-  <si>
-    <t>COMPETITOR_DICTIONARY</t>
-  </si>
-  <si>
-    <t>ko:./bin/dic/feature/feature_mobile_ko.txt,ja:./bin/dic/feature/feature_mobile_ja.txt</t>
-  </si>
-  <si>
-    <t>ko:./bin/dic/feature/feature_mobile_ko.txt</t>
-  </si>
-  <si>
-    <t>./bin/dic/competitor/competitor_mobile.txt</t>
-  </si>
-  <si>
-    <t>FEATURE_DICTIONARIES</t>
   </si>
 </sst>
 </file>
@@ -2571,38 +2570,38 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="14">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="14">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="14">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2691,158 +2690,158 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="14">
         <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="14">
         <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="14">
         <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="14">
         <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="14">
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="14">
         <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="14">
         <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="14">
         <v>31</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="14">
         <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="14">
         <v>33</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="14">
         <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="14">
         <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="14">
         <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3256,7 +3255,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="18">
         <v>8</v>
@@ -3267,7 +3266,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" s="18">
         <v>8</v>
@@ -3365,13 +3364,13 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" s="18">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3393,7 +3392,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3431,7 +3430,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="18">
         <v>11</v>
@@ -3442,7 +3441,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="18">
         <v>12</v>
@@ -3540,13 +3539,13 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B45" s="18">
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3568,23 +3567,23 @@
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B48" s="18">
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" s="18">
         <v>9</v>
@@ -3595,18 +3594,18 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B50" s="18">
         <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B51" s="18">
         <v>11</v>
@@ -3715,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3737,23 +3736,23 @@
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B65" s="18">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B66" s="18">
         <v>9</v>
@@ -3764,18 +3763,18 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" s="18">
         <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68" s="18">
         <v>11</v>
@@ -3878,13 +3877,13 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B79" s="18">
         <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3917,23 +3916,23 @@
         <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B83" s="18">
         <v>9</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B84" s="18">
         <v>10</v>
@@ -3944,7 +3943,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B85" s="18">
         <v>11</v>
@@ -3955,18 +3954,18 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B86" s="18">
         <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B87" s="18">
         <v>13</v>
@@ -4064,13 +4063,13 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B98" s="18">
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4103,23 +4102,23 @@
         <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B102" s="18">
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B103" s="18">
         <v>10</v>
@@ -4130,29 +4129,29 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B104" s="18">
         <v>11</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B105" s="18">
         <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B106" s="18">
         <v>13</v>
@@ -4163,7 +4162,7 @@
     </row>
     <row r="108" spans="1:3" ht="20">
       <c r="A108" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B108" s="38"/>
       <c r="C108" s="39"/>
@@ -4250,35 +4249,35 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B117" s="18">
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B118" s="18">
         <v>6</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B119" s="18">
         <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4300,23 +4299,23 @@
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B122" s="18">
         <v>10</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B123" s="18">
         <v>11</v>
@@ -4327,18 +4326,18 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B124" s="18">
         <v>12</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B125" s="18">
         <v>13</v>
@@ -4349,7 +4348,7 @@
     </row>
     <row r="127" spans="1:3" ht="20">
       <c r="A127" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B127" s="38"/>
       <c r="C127" s="39"/>
@@ -4436,35 +4435,35 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B136" s="18">
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B137" s="18">
         <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B138" s="18">
         <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4497,12 +4496,12 @@
         <v>10</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B142" s="18">
         <v>11</v>
@@ -4513,7 +4512,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B143" s="18">
         <v>12</v>
@@ -4524,7 +4523,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B144" s="18">
         <v>13</v>
@@ -4535,18 +4534,18 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B145" s="18">
         <v>14</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B146" s="18">
         <v>15</v>
@@ -4557,7 +4556,7 @@
     </row>
     <row r="148" spans="1:3" ht="20">
       <c r="A148" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B148" s="38"/>
       <c r="C148" s="39"/>
@@ -4644,35 +4643,35 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B157" s="18">
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B158" s="18">
         <v>6</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B159" s="18">
         <v>7</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4705,23 +4704,23 @@
         <v>10</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B163" s="18">
         <v>11</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B164" s="18">
         <v>12</v>
@@ -4732,29 +4731,29 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B165" s="18">
         <v>13</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B166" s="18">
         <v>14</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B167" s="18">
         <v>15</v>
@@ -6255,7 +6254,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6281,7 +6280,7 @@
         <v>195</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>196</v>
@@ -6296,10 +6295,10 @@
         <v>199</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>200</v>
@@ -6313,7 +6312,7 @@
         <v>201</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" s="24">
         <v>443904275</v>
@@ -6325,13 +6324,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>202</v>
@@ -6345,7 +6344,7 @@
         <v>203</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="24">
         <v>393499958</v>
@@ -6357,13 +6356,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>202</v>
@@ -6377,7 +6376,7 @@
         <v>205</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="24">
         <v>362057947</v>
@@ -6389,13 +6388,13 @@
         <v>5</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H4" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>204</v>
@@ -6409,7 +6408,7 @@
         <v>201</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>207</v>
@@ -6421,13 +6420,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>208</v>
@@ -6441,7 +6440,7 @@
         <v>209</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>210</v>
@@ -6453,13 +6452,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H6" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>211</v>
@@ -6473,7 +6472,7 @@
         <v>212</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>213</v>
@@ -6485,13 +6484,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>208</v>
@@ -6505,10 +6504,10 @@
         <v>201</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="E8" s="23">
         <v>5</v>
@@ -6517,28 +6516,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H8" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="A9" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="23">
         <v>5</v>
@@ -6547,13 +6546,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J9" s="23"/>
     </row>

--- a/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
+++ b/social-analytics/social-analytics-collector/doc/data_layout_v0.3_20120118.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="572" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="572" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="source data" sheetId="2" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <t>site</t>
   </si>
   <si>
-    <t>object_id</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>수집대상 Object ID</t>
-  </si>
-  <si>
     <t>사이트 ID</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>수집일시(yyyyMMddHHmmss)</t>
   </si>
   <si>
-    <t>site, object_id, collect_date(Site명/ObjectID_yyyymmdd.txt)</t>
-  </si>
-  <si>
     <t>수집주기</t>
   </si>
   <si>
@@ -219,30 +210,18 @@
     <t>극성가중치합계</t>
   </si>
   <si>
-    <t>Feature/Subject별 주간 집계</t>
-  </si>
-  <si>
     <t>주제어 Frequency</t>
   </si>
   <si>
-    <t>Feature/Subject/Predicate별 주간 집계</t>
-  </si>
-  <si>
     <t>서술어 Frequency</t>
   </si>
   <si>
-    <t>Feature/Subject/Attribute별 주간 집계</t>
-  </si>
-  <si>
     <t>속성</t>
   </si>
   <si>
     <t>문서ID 리스트(최신순 500개)</t>
   </si>
   <si>
-    <t>site, object_id, language, week</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -252,9 +231,6 @@
     <t>문서 건수</t>
   </si>
   <si>
-    <t>site, object_id</t>
-  </si>
-  <si>
     <t>week</t>
   </si>
   <si>
@@ -342,12 +318,6 @@
     <t>기준시간(문서작성일자 기준)</t>
   </si>
   <si>
-    <t>Feature별 일별 집계</t>
-  </si>
-  <si>
-    <t>Object별 일별 집계</t>
-  </si>
-  <si>
     <t>positive_count</t>
   </si>
   <si>
@@ -361,9 +331,6 @@
   </si>
   <si>
     <t xml:space="preserve"> No.</t>
-  </si>
-  <si>
-    <t>Feature/Predicate별 주간 집계</t>
   </si>
   <si>
     <t>주제어 집합(구분자: 공백)</t>
@@ -689,10 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OBJECT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SEARCH_KEYWORDS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,9 +738,6 @@
     <t>competitor</t>
   </si>
   <si>
-    <t>OBJECT_NAME</t>
-  </si>
-  <si>
     <t>네이버라인</t>
   </si>
   <si>
@@ -838,9 +798,6 @@
     <t>속성 Frequency</t>
   </si>
   <si>
-    <t>Competitor/Feature/Subject/Predicate별 주간 집계</t>
-  </si>
-  <si>
     <t>competitor_id</t>
   </si>
   <si>
@@ -850,12 +807,6 @@
     <t>경쟁자</t>
   </si>
   <si>
-    <t>Competitor/Feature/Subject별 주간 집계</t>
-  </si>
-  <si>
-    <t>Competitor/Feature/Subject/Attribute별 주간 집계</t>
-  </si>
-  <si>
     <t>경쟁자 집합(구분자: 공백)</t>
   </si>
   <si>
@@ -986,6 +937,54 @@
   </si>
   <si>
     <t>네이버라인,네이버LINE,NAVERLINE</t>
+  </si>
+  <si>
+    <t>ENTITY_ID</t>
+  </si>
+  <si>
+    <t>ENTITY_NAME</t>
+  </si>
+  <si>
+    <t>entity_id</t>
+  </si>
+  <si>
+    <t>수집대상 Entity ID</t>
+  </si>
+  <si>
+    <t>site, entity_id, collect_date(Site명/EntityID_yyyymmdd.txt)</t>
+  </si>
+  <si>
+    <t>Entity별 일별 집계</t>
+  </si>
+  <si>
+    <t>site, entity_id</t>
+  </si>
+  <si>
+    <t>site, entity_id, language, week</t>
+  </si>
+  <si>
+    <t>Feature Category별 일별 집계</t>
+  </si>
+  <si>
+    <t>Feature Category/Subject별 주간 집계</t>
+  </si>
+  <si>
+    <t>Feature Category/Predicate별 주간 집계</t>
+  </si>
+  <si>
+    <t>Feature Category/Subject/Predicate별 주간 집계</t>
+  </si>
+  <si>
+    <t>Feature Category/Subject/Attribute별 주간 집계</t>
+  </si>
+  <si>
+    <t>Competitor/Feature Category/Subject별 주간 집계</t>
+  </si>
+  <si>
+    <t>Competitor/Feature Category/Subject/Predicate별 주간 집계</t>
+  </si>
+  <si>
+    <t>Competitor/Feature Category/Subject/Attribute별 주간 집계</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="286">
+  <cellStyleXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1470,6 +1469,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1704,7 +1713,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="286">
+  <cellStyles count="296">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1847,6 +1856,11 @@
     <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1989,6 +2003,11 @@
     <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="205"/>
   </cellStyles>
@@ -2322,7 +2341,7 @@
   <dimension ref="A2:D66"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2336,7 +2355,7 @@
   <sheetData>
     <row r="2" spans="1:4" ht="20">
       <c r="A2" s="37" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -2344,69 +2363,69 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40"/>
       <c r="B4" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40"/>
       <c r="B6" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40"/>
       <c r="B7" s="12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40"/>
       <c r="B8" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="42" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -2414,14 +2433,14 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2433,439 +2452,439 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="14">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="14">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="14">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="14">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="14">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="14">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="14">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="14">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="14">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="14">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="14">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="31" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="14">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="14">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="31" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="14">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="14">
         <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="14">
         <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="14">
         <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="14">
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="14">
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="31" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="14">
         <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="31" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="14">
         <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="31" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B34" s="32"/>
       <c r="C34" s="14">
         <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="31" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="14">
         <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="31" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="14">
         <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="31" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="14">
         <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="33" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="14">
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="14">
         <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="33" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="14">
         <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="33" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="14">
         <v>31</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="33" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="14">
         <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="33" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="14">
         <v>33</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="33" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="14">
         <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="14">
         <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="33" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="14">
         <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="36"/>
       <c r="C47" s="14">
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="14">
         <v>38</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2876,7 +2895,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="42" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -2884,204 +2903,204 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="41" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C52" s="15">
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="41"/>
       <c r="B53" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C53" s="15">
         <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="41"/>
       <c r="B54" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54" s="15">
         <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="41"/>
       <c r="B55" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C55" s="15">
         <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="41"/>
       <c r="B56" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" s="15">
         <v>31</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="41" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57" s="15">
         <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="41"/>
       <c r="B58" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C58" s="15">
         <v>28</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="41" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" s="15">
         <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="41"/>
       <c r="B60" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C60" s="15">
         <v>28</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="41"/>
       <c r="B61" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C61" s="15">
         <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="41" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C62" s="15">
         <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="41"/>
       <c r="B63" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C63" s="15">
         <v>28</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="41"/>
       <c r="B64" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C64" s="15">
         <v>29</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="41"/>
       <c r="B65" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C65" s="15">
         <v>30</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="41"/>
       <c r="B66" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C66" s="15">
         <v>31</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3110,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C167"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView showGridLines="0" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3124,45 +3143,45 @@
   <sheetData>
     <row r="2" spans="1:3" ht="20">
       <c r="A2" s="37" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="46"/>
       <c r="B4" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3173,149 +3192,149 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B8" s="18">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="18">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B10" s="18">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B11" s="18">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B12" s="18">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B13" s="18">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="18">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B15" s="18">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B16" s="18">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20">
       <c r="A18" s="37" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="46"/>
       <c r="B20" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3326,171 +3345,171 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B24" s="18">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="18">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B26" s="18">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B27" s="18">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B28" s="18">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B29" s="18">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B30" s="18">
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B31" s="18">
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="18">
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B33" s="18">
         <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B34" s="18">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20">
       <c r="A36" s="37" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="39"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="46"/>
       <c r="B38" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3501,117 +3520,117 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B42" s="18">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="18">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B44" s="18">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B45" s="18">
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="18">
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B47" s="18">
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B48" s="18">
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B49" s="18">
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B50" s="18">
         <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B51" s="18">
         <v>11</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3621,45 +3640,45 @@
     </row>
     <row r="53" spans="1:3" ht="20">
       <c r="A53" s="37" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="B53" s="38"/>
       <c r="C53" s="39"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="46"/>
       <c r="B55" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1">
       <c r="A57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3670,117 +3689,117 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B59" s="18">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="18">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B61" s="18">
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="18">
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="18">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B64" s="18">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B65" s="18">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B66" s="18">
         <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B67" s="18">
         <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B68" s="18">
         <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3790,45 +3809,45 @@
     </row>
     <row r="70" spans="1:3" ht="20">
       <c r="A70" s="37" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="B70" s="38"/>
       <c r="C70" s="39"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="46"/>
       <c r="B72" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3839,182 +3858,182 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B76" s="18">
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="18">
         <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B78" s="18">
         <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B79" s="18">
         <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80" s="18">
         <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="18">
         <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B82" s="18">
         <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B83" s="18">
         <v>9</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B84" s="18">
         <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B85" s="18">
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B86" s="18">
         <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B87" s="18">
         <v>13</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20">
       <c r="A89" s="37" t="s">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="B89" s="38"/>
       <c r="C89" s="39"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="46"/>
       <c r="B91" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4025,182 +4044,182 @@
         <v>1</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B95" s="18">
         <v>2</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="18">
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B97" s="18">
         <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B98" s="18">
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99" s="18">
         <v>6</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100" s="18">
         <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B101" s="18">
         <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B102" s="18">
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B103" s="18">
         <v>10</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B104" s="18">
         <v>11</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B105" s="18">
         <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B106" s="18">
         <v>13</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20">
       <c r="A108" s="37" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="B108" s="38"/>
       <c r="C108" s="39"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="46"/>
       <c r="B110" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4211,182 +4230,182 @@
         <v>1</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B114" s="18">
         <v>2</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="18">
         <v>3</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B116" s="18">
         <v>4</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B117" s="18">
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B118" s="18">
         <v>6</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B119" s="18">
         <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B120" s="18">
         <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B121" s="18">
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B122" s="18">
         <v>10</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B123" s="18">
         <v>11</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B124" s="18">
         <v>12</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B125" s="18">
         <v>13</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20">
       <c r="A127" s="37" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="B127" s="38"/>
       <c r="C127" s="39"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="46"/>
       <c r="B129" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4397,204 +4416,204 @@
         <v>1</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B133" s="18">
         <v>2</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" s="18">
         <v>3</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B135" s="18">
         <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B136" s="18">
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B137" s="18">
         <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B138" s="18">
         <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B139" s="18">
         <v>8</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" s="18">
         <v>9</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B141" s="18">
         <v>10</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B142" s="18">
         <v>11</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B143" s="18">
         <v>12</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B144" s="18">
         <v>13</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B145" s="18">
         <v>14</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B146" s="18">
         <v>15</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20">
       <c r="A148" s="37" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="B148" s="38"/>
       <c r="C148" s="39"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="46"/>
       <c r="B150" s="17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C152" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4605,165 +4624,171 @@
         <v>1</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="B154" s="18">
         <v>2</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" s="18">
         <v>3</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B156" s="18">
         <v>4</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B157" s="18">
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B158" s="18">
         <v>6</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B159" s="18">
         <v>7</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B160" s="18">
         <v>8</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B161" s="18">
         <v>9</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B162" s="18">
         <v>10</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B163" s="18">
         <v>11</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B164" s="18">
         <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B165" s="18">
         <v>13</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B166" s="18">
         <v>14</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B167" s="18">
         <v>15</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A148:C148"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A2:C2"/>
@@ -4776,15 +4801,10 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A148:C148"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="68" max="16383" man="1"/>
     <brk id="106" max="16383" man="1"/>
@@ -4804,7 +4824,7 @@
   </sheetPr>
   <dimension ref="A3:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -4822,22 +4842,22 @@
   <sheetData>
     <row r="3" spans="1:13">
       <c r="A3" s="47" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
@@ -4847,60 +4867,60 @@
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="26" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="48" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
@@ -4912,28 +4932,28 @@
     <row r="6" spans="1:13">
       <c r="A6" s="49"/>
       <c r="B6" s="27" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -4943,18 +4963,18 @@
     <row r="7" spans="1:13">
       <c r="A7" s="49"/>
       <c r="B7" s="27" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
@@ -4966,18 +4986,18 @@
     <row r="8" spans="1:13">
       <c r="A8" s="49"/>
       <c r="B8" s="27" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -4989,18 +5009,18 @@
     <row r="9" spans="1:13">
       <c r="A9" s="49"/>
       <c r="B9" s="27" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
@@ -5012,18 +5032,18 @@
     <row r="10" spans="1:13">
       <c r="A10" s="49"/>
       <c r="B10" s="27" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
@@ -5035,18 +5055,18 @@
     <row r="11" spans="1:13">
       <c r="A11" s="49"/>
       <c r="B11" s="27" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
@@ -5058,18 +5078,18 @@
     <row r="12" spans="1:13">
       <c r="A12" s="49"/>
       <c r="B12" s="27" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
@@ -5081,18 +5101,18 @@
     <row r="13" spans="1:13">
       <c r="A13" s="49"/>
       <c r="B13" s="27" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
@@ -5104,18 +5124,18 @@
     <row r="14" spans="1:13">
       <c r="A14" s="49"/>
       <c r="B14" s="27" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -5127,18 +5147,18 @@
     <row r="15" spans="1:13">
       <c r="A15" s="49"/>
       <c r="B15" s="27" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
@@ -5150,18 +5170,18 @@
     <row r="16" spans="1:13">
       <c r="A16" s="49"/>
       <c r="B16" s="27" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
@@ -5173,18 +5193,18 @@
     <row r="17" spans="1:13">
       <c r="A17" s="49"/>
       <c r="B17" s="27" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -5196,18 +5216,18 @@
     <row r="18" spans="1:13">
       <c r="A18" s="49"/>
       <c r="B18" s="27" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -5219,18 +5239,18 @@
     <row r="19" spans="1:13">
       <c r="A19" s="49"/>
       <c r="B19" s="27" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -5242,18 +5262,18 @@
     <row r="20" spans="1:13">
       <c r="A20" s="49"/>
       <c r="B20" s="27" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -5265,18 +5285,18 @@
     <row r="21" spans="1:13">
       <c r="A21" s="49"/>
       <c r="B21" s="27" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
@@ -5288,18 +5308,18 @@
     <row r="22" spans="1:13">
       <c r="A22" s="50"/>
       <c r="B22" s="27" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -5310,21 +5330,21 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="48" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
@@ -5336,18 +5356,18 @@
     <row r="24" spans="1:13">
       <c r="A24" s="49"/>
       <c r="B24" s="27" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
@@ -5359,18 +5379,18 @@
     <row r="25" spans="1:13">
       <c r="A25" s="49"/>
       <c r="B25" s="27" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
@@ -5382,18 +5402,18 @@
     <row r="26" spans="1:13">
       <c r="A26" s="49"/>
       <c r="B26" s="27" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
@@ -5405,18 +5425,18 @@
     <row r="27" spans="1:13">
       <c r="A27" s="49"/>
       <c r="B27" s="27" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
@@ -5428,18 +5448,18 @@
     <row r="28" spans="1:13">
       <c r="A28" s="49"/>
       <c r="B28" s="27" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -5451,18 +5471,18 @@
     <row r="29" spans="1:13">
       <c r="A29" s="49"/>
       <c r="B29" s="27" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -5474,18 +5494,18 @@
     <row r="30" spans="1:13">
       <c r="A30" s="49"/>
       <c r="B30" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -5497,18 +5517,18 @@
     <row r="31" spans="1:13">
       <c r="A31" s="49"/>
       <c r="B31" s="27" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -5520,18 +5540,18 @@
     <row r="32" spans="1:13">
       <c r="A32" s="49"/>
       <c r="B32" s="27" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -5543,18 +5563,18 @@
     <row r="33" spans="1:13">
       <c r="A33" s="49"/>
       <c r="B33" s="27" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -5566,18 +5586,18 @@
     <row r="34" spans="1:13">
       <c r="A34" s="49"/>
       <c r="B34" s="27" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -5589,18 +5609,18 @@
     <row r="35" spans="1:13">
       <c r="A35" s="49"/>
       <c r="B35" s="27" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -5612,18 +5632,18 @@
     <row r="36" spans="1:13">
       <c r="A36" s="49"/>
       <c r="B36" s="27" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -5635,18 +5655,18 @@
     <row r="37" spans="1:13">
       <c r="A37" s="49"/>
       <c r="B37" s="27" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -5658,18 +5678,18 @@
     <row r="38" spans="1:13">
       <c r="A38" s="49"/>
       <c r="B38" s="27" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -5681,18 +5701,18 @@
     <row r="39" spans="1:13">
       <c r="A39" s="49"/>
       <c r="B39" s="27" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -5704,13 +5724,13 @@
     <row r="40" spans="1:13">
       <c r="A40" s="49"/>
       <c r="B40" s="27" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -5724,25 +5744,25 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="48" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
@@ -5754,22 +5774,22 @@
     <row r="42" spans="1:13">
       <c r="A42" s="49"/>
       <c r="B42" s="27" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
@@ -5781,18 +5801,18 @@
     <row r="43" spans="1:13">
       <c r="A43" s="49"/>
       <c r="B43" s="27" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
@@ -5804,18 +5824,18 @@
     <row r="44" spans="1:13">
       <c r="A44" s="49"/>
       <c r="B44" s="27" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
@@ -5827,18 +5847,18 @@
     <row r="45" spans="1:13">
       <c r="A45" s="49"/>
       <c r="B45" s="27" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
@@ -5850,18 +5870,18 @@
     <row r="46" spans="1:13">
       <c r="A46" s="49"/>
       <c r="B46" s="27" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
@@ -5873,18 +5893,18 @@
     <row r="47" spans="1:13">
       <c r="A47" s="49"/>
       <c r="B47" s="27" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
       <c r="G47" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
@@ -5896,18 +5916,18 @@
     <row r="48" spans="1:13">
       <c r="A48" s="49"/>
       <c r="B48" s="27" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
@@ -5919,18 +5939,18 @@
     <row r="49" spans="1:13">
       <c r="A49" s="49"/>
       <c r="B49" s="27" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
@@ -5942,18 +5962,18 @@
     <row r="50" spans="1:13">
       <c r="A50" s="49"/>
       <c r="B50" s="27" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
       <c r="G50" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
@@ -5965,18 +5985,18 @@
     <row r="51" spans="1:13">
       <c r="A51" s="49"/>
       <c r="B51" s="27" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -5988,18 +6008,18 @@
     <row r="52" spans="1:13">
       <c r="A52" s="49"/>
       <c r="B52" s="27" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
@@ -6011,18 +6031,18 @@
     <row r="53" spans="1:13">
       <c r="A53" s="50"/>
       <c r="B53" s="27" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
@@ -6033,21 +6053,21 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="48" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
@@ -6059,18 +6079,18 @@
     <row r="55" spans="1:13">
       <c r="A55" s="49"/>
       <c r="B55" s="27" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
@@ -6082,18 +6102,18 @@
     <row r="56" spans="1:13">
       <c r="A56" s="49"/>
       <c r="B56" s="27" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
@@ -6105,18 +6125,18 @@
     <row r="57" spans="1:13">
       <c r="A57" s="49"/>
       <c r="B57" s="27" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
       <c r="G57" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
@@ -6128,18 +6148,18 @@
     <row r="58" spans="1:13">
       <c r="A58" s="49"/>
       <c r="B58" s="27" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
       <c r="G58" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
@@ -6151,18 +6171,18 @@
     <row r="59" spans="1:13">
       <c r="A59" s="49"/>
       <c r="B59" s="27" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
@@ -6174,18 +6194,18 @@
     <row r="60" spans="1:13">
       <c r="A60" s="49"/>
       <c r="B60" s="27" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
@@ -6196,28 +6216,28 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="30" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I61" s="28"/>
       <c r="J61" s="29"/>
@@ -6254,7 +6274,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6274,45 +6294,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="40" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D2" s="24">
         <v>443904275</v>
@@ -6324,27 +6344,27 @@
         <v>5</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D3" s="24">
         <v>393499958</v>
@@ -6356,27 +6376,27 @@
         <v>5</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D4" s="24">
         <v>362057947</v>
@@ -6388,30 +6408,30 @@
         <v>5</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="23" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E5" s="23">
         <v>5</v>
@@ -6420,30 +6440,30 @@
         <v>5</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>219</v>
-      </c>
       <c r="D6" s="23" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E6" s="23">
         <v>5</v>
@@ -6452,30 +6472,30 @@
         <v>5</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="23" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E7" s="23">
         <v>5</v>
@@ -6484,30 +6504,30 @@
         <v>5</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" s="23" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E8" s="23">
         <v>5</v>
@@ -6516,28 +6536,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="45">
       <c r="A9" s="23" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E9" s="23">
         <v>5</v>
@@ -6546,13 +6566,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J9" s="23"/>
     </row>
